--- a/Parts/v1/Parts.xlsx
+++ b/Parts/v1/Parts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">jst 3pin wire for led strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 pin wire for sensor button</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,7 +199,12 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
